--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>747272.6647092011</v>
+        <v>777328.8895231137</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>516314.6540548912</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9613100.293655319</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9038068.780484974</v>
+        <v>8756676.973278133</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>12.29800990639686</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>243.2386572690345</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>161.4151008513904</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>332.1218731602352</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>321.8220825108998</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>54.47555601903397</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.7879965260038</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>11.39135506887367</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,10 +1311,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.8950372953905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>67.00090002953</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>352.0426595656929</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>219.3567277916633</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1695,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.5310119231965</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>42.94681372917852</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>105.9602739879888</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>119.2949683421031</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2290,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>189.596843649344</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>116.2349668968044</v>
+        <v>72.75222284062306</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,25 +2481,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>22.75446130335963</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>8.389005322401335</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,7 +2572,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>45.22146064986498</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>172.0214414167001</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>101.7806877295488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>15.24537842269859</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>138.0869361432969</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>340.0237825764893</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,22 +2958,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>144.7456473197374</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H32" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3229,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>175.7939063102966</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.467412544855456</v>
       </c>
       <c r="U35" t="n">
-        <v>28.92900240760887</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>235.4745188564437</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3506,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>121.4691059445368</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>190.2713935802968</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>265.2188210461267</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>159.7365432862661</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>9.461970681989245</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>208.0481001000691</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.467412544855456</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>94.65568569260671</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>271.442712802395</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.353113282533</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>2684.726858789539</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>2684.726858789539</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>2684.726858789539</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>2684.726858789539</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>2684.726858789539</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>2331.958203519424</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.492445258345</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y2" t="n">
-        <v>1568.353113282533</v>
+        <v>858.9304414063565</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>674.5275424716787</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>439.3754342399359</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>185.1380775117343</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1670.695888779115</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="C5" t="n">
-        <v>1301.733371838703</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="D5" t="n">
-        <v>943.4676732319529</v>
+        <v>1699.030030236486</v>
       </c>
       <c r="E5" t="n">
-        <v>943.4676732319529</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>532.4817684423454</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4601,16 +4603,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843237</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843237</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843237</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.295728843237</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="6">
@@ -4620,58 +4622,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
         <v>2289.884200196743</v>
@@ -4689,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810048</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810048</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810048</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9687959810048</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1679.795701438247</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C8" t="n">
-        <v>1310.833184497836</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D8" t="n">
-        <v>952.5674858910851</v>
+        <v>604.7036296850076</v>
       </c>
       <c r="E8" t="n">
-        <v>952.5674858910851</v>
+        <v>218.9153770867634</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>218.9153770867634</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.955293888756</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1816.955293888756</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,46 +4889,46 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
         <v>235.9284171545819</v>
@@ -4960,52 +4962,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224076</v>
@@ -5057,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y11" t="n">
-        <v>2642.120401548716</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5139,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E13" t="n">
-        <v>663.910013048764</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>167.2771830507352</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>167.2771830507352</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.9054987607762</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036446</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036446</v>
+        <v>1206.315785234169</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036446</v>
+        <v>820.5275326359244</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036446</v>
+        <v>409.5416278463169</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>1925.879084331904</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1573.11042906179</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1199.64467080071</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>809.505338824898</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961344</v>
@@ -5352,25 +5354,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5400,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E16" t="n">
-        <v>698.7120650600564</v>
+        <v>402.6523129118469</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>402.6523129118469</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>233.6525126501793</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="17">
@@ -5489,70 +5491,70 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.945354755379</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C17" t="n">
         <v>1208.982837814967</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082163</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
         <v>2354.684526795312</v>
@@ -5589,28 +5591,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>833.8914035503838</v>
+        <v>1519.351822121131</v>
       </c>
       <c r="C20" t="n">
-        <v>464.928886609972</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D20" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2535.089821762869</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2281.32803640096</v>
+        <v>2576.649122995896</v>
       </c>
       <c r="V20" t="n">
-        <v>1950.265149057389</v>
+        <v>2245.586235652325</v>
       </c>
       <c r="W20" t="n">
-        <v>1597.496493787275</v>
+        <v>1892.817580382211</v>
       </c>
       <c r="X20" t="n">
-        <v>1224.030735526195</v>
+        <v>1519.351822121131</v>
       </c>
       <c r="Y20" t="n">
-        <v>833.8914035503838</v>
+        <v>1519.351822121131</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5841,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>2505.637127736057</v>
       </c>
       <c r="U22" t="n">
-        <v>598.044640063212</v>
+        <v>2505.637127736057</v>
       </c>
       <c r="V22" t="n">
-        <v>343.3601518573251</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036446</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1268.68094731003</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2579.740033546703</v>
+        <v>2623.661997239816</v>
       </c>
       <c r="U23" t="n">
-        <v>2325.978248184794</v>
+        <v>2623.661997239816</v>
       </c>
       <c r="V23" t="n">
-        <v>1994.915360841223</v>
+        <v>2623.661997239816</v>
       </c>
       <c r="W23" t="n">
-        <v>1642.146705571109</v>
+        <v>2270.893341969701</v>
       </c>
       <c r="X23" t="n">
-        <v>1268.68094731003</v>
+        <v>2270.893341969701</v>
       </c>
       <c r="Y23" t="n">
-        <v>1268.68094731003</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2519.585513306029</v>
+        <v>2476.356511874693</v>
       </c>
       <c r="C25" t="n">
-        <v>2519.585513306029</v>
+        <v>2476.356511874693</v>
       </c>
       <c r="D25" t="n">
-        <v>2519.585513306029</v>
+        <v>2326.239872462357</v>
       </c>
       <c r="E25" t="n">
-        <v>2519.585513306029</v>
+        <v>2178.326778879964</v>
       </c>
       <c r="F25" t="n">
-        <v>2372.695565808118</v>
+        <v>2031.436831382054</v>
       </c>
       <c r="G25" t="n">
-        <v>2203.695765546451</v>
+        <v>2031.436831382054</v>
       </c>
       <c r="H25" t="n">
-        <v>2045.947392978981</v>
+        <v>2031.436831382054</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>2031.436831382054</v>
       </c>
       <c r="J25" t="n">
         <v>2022.963088632153</v>
@@ -6151,46 +6153,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V25" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W25" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X25" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y25" t="n">
-        <v>2519.585513306029</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1210.087414675782</v>
+        <v>1683.321707331113</v>
       </c>
       <c r="C26" t="n">
-        <v>1210.087414675782</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="D26" t="n">
-        <v>1210.087414675782</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>928.5709377924568</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>517.5850330028493</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>99.62122490103616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2304.755392256245</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>1973.692504912674</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W26" t="n">
-        <v>1973.692504912674</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X26" t="n">
-        <v>1600.226746651594</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y26" t="n">
-        <v>1210.087414675782</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6302,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2294.708047044453</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="C28" t="n">
-        <v>2125.771864116546</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018222</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018222</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018222</v>
+        <v>712.7296120622943</v>
       </c>
       <c r="Y28" t="n">
-        <v>2476.356511874692</v>
+        <v>712.7296120622943</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1194.175505447094</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C29" t="n">
-        <v>1194.175505447094</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D29" t="n">
-        <v>1194.175505447094</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E29" t="n">
-        <v>808.38725284885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>397.4013480592425</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511216</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.8558756644251</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="C31" t="n">
-        <v>370.8558756644251</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="D31" t="n">
-        <v>370.8558756644251</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>2362.696896533841</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>2204.948523966371</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>552.5043404946648</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>552.5043404946648</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>552.5043404946648</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U31" t="n">
-        <v>552.5043404946648</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V31" t="n">
-        <v>552.5043404946648</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W31" t="n">
-        <v>552.5043404946648</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X31" t="n">
-        <v>552.5043404946648</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y31" t="n">
-        <v>552.5043404946648</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2310.5492509541</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C32" t="n">
-        <v>1941.586734013689</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D32" t="n">
-        <v>1583.321035406938</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E32" t="n">
-        <v>1197.532782808694</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F32" t="n">
-        <v>786.5468780190865</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G32" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>2697.149091018222</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6865,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>372.9958041606071</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V34" t="n">
-        <v>372.9958041606071</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>833.8914035503838</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C35" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D35" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2639.628065644821</v>
       </c>
       <c r="U35" t="n">
-        <v>2667.927876465082</v>
+        <v>2385.866280282913</v>
       </c>
       <c r="V35" t="n">
-        <v>2336.864989121511</v>
+        <v>2385.866280282913</v>
       </c>
       <c r="W35" t="n">
-        <v>1984.096333851397</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X35" t="n">
-        <v>1610.630575590317</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y35" t="n">
-        <v>1220.491243614505</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="U37" t="n">
-        <v>490.2759348564911</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="V37" t="n">
-        <v>235.5914466506042</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="W37" t="n">
-        <v>235.5914466506042</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="X37" t="n">
-        <v>235.5914466506042</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.5914466506042</v>
+        <v>2107.405821939171</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>545.6015653714194</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>176.6390484310077</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7175,16 +7177,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7199,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1695.806495672433</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1322.340737411353</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>932.2014054355411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7269,25 +7271,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7360,13 +7362,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>2469.840903686824</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2277.64757683804</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V40" t="n">
-        <v>2022.963088632153</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
         <v>2022.963088632153</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1017.998017761265</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C41" t="n">
-        <v>649.0355008208533</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="D41" t="n">
-        <v>381.1377017843616</v>
+        <v>601.0812781421098</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1377017843616</v>
+        <v>215.2930255438656</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7409,7 +7411,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
@@ -7436,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W41" t="n">
-        <v>2168.202948062278</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X41" t="n">
-        <v>1794.737189801198</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y41" t="n">
-        <v>1404.597857825387</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7488,43 +7490,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.8327295799424</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="C43" t="n">
-        <v>369.8327295799424</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="D43" t="n">
-        <v>369.8327295799424</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7597,22 +7599,22 @@
         <v>579.9823256406182</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406182</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U43" t="n">
-        <v>369.8327295799424</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V43" t="n">
-        <v>369.8327295799424</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W43" t="n">
-        <v>369.8327295799424</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="X43" t="n">
-        <v>369.8327295799424</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="Y43" t="n">
-        <v>369.8327295799424</v>
+        <v>63.50052796378793</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>882.8926947117852</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>882.8926947117852</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117852</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7646,52 +7648,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>297.0690422295933</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>928.786853212905</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1556.094521272752</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>2103.255726039829</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2385.866280282913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2033.097625012799</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1659.631866751719</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1269.492534775907</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
         <v>53.94298182036445</v>
@@ -7807,49 +7809,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>779.6931048934516</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y46" t="n">
-        <v>500.1394333084169</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>205.9879039236167</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8942,10 +8944,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714827</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10352,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>240.3869484383496</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>42.18039266841485</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>142.9992813870191</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22689,10 +22691,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>44.35788435208707</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>47.78481791206877</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>49.80849691202661</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>91.96208750989518</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22948,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80.49006577330425</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>246.9458451374768</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>402.3928149519213</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.8388043680901</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>82.85718120047541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>67.96472176280822</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>61.74151045510206</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>31.86743971662597</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74592769735753</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>113.2240751126166</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23911,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>83.12091415361536</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23986,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>110.488046369669</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>131.9291991661862</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874029</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24257,22 +24259,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>100.2133534608534</v>
+        <v>143.6960975170347</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,25 +24369,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>112.2111604889786</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>36.81095386613566</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>278.7013121144922</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24494,13 +24496,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>79.20272609158923</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>46.83478528866354</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,13 +24618,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>13.87737153221572</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>244.6469055201837</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>73.76038744430571</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>1.919544660420428</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H32" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25117,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>36.35163263972231</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>213.9809078128023</v>
       </c>
       <c r="U35" t="n">
-        <v>222.2951651006804</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25327,7 +25329,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>72.57258286784689</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25357,19 +25359,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>50.80735538553404</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25394,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>233.2139356761462</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>96.01048066168096</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>89.46422057455629</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>247.1395024554454</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25795,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>157.8478315770617</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>78.23377414190867</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>88.92504442304141</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>325.2848459252795</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,28 +26025,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>51.77827695396246</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>14.81794185570203</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>781628.703216691</v>
+        <v>493776.9532238221</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166913</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781628.7032166909</v>
+        <v>781628.7032166913</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>781628.7032166909</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781628.7032166909</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>781628.7032166909</v>
+        <v>792815.2339921144</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>168322.7414503684</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
         <v>274694.9795149697</v>
@@ -26332,10 +26334,10 @@
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149697</v>
@@ -26344,16 +26346,16 @@
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149695</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="O2" t="n">
-        <v>274694.9795149696</v>
-      </c>
       <c r="P2" t="n">
-        <v>274694.9795149697</v>
+        <v>284076.0793435334</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>440708.0835147456</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>72254.69487113909</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>102466.1171957467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>143586.3319036564</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44802.6561755686</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="D4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="F4" t="n">
         <v>44802.65617556861</v>
@@ -26448,16 +26450,16 @@
         <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="N4" t="n">
         <v>44802.6561755686</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.65617556861</v>
+        <v>30816.27558774721</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>51181.37951678014</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="I5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>53934.4451708468</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-442934.6339385526</v>
+        <v>-51321.79573553755</v>
       </c>
       <c r="C6" t="n">
-        <v>147033.2452759917</v>
+        <v>-293674.8382387539</v>
       </c>
       <c r="D6" t="n">
-        <v>147033.2452759917</v>
+        <v>147033.2452759916</v>
       </c>
       <c r="E6" t="n">
-        <v>180660.8452759918</v>
+        <v>180660.8452759916</v>
       </c>
       <c r="F6" t="n">
+        <v>180660.8452759916</v>
+      </c>
+      <c r="G6" t="n">
+        <v>180660.8452759916</v>
+      </c>
+      <c r="H6" t="n">
         <v>180660.8452759917</v>
-      </c>
-      <c r="G6" t="n">
-        <v>180660.8452759917</v>
-      </c>
-      <c r="H6" t="n">
-        <v>180660.8452759916</v>
       </c>
       <c r="I6" t="n">
         <v>180660.8452759917</v>
       </c>
       <c r="J6" t="n">
-        <v>4237.626083398842</v>
+        <v>108406.1504048526</v>
       </c>
       <c r="K6" t="n">
-        <v>180660.8452759916</v>
+        <v>78194.728080245</v>
       </c>
       <c r="L6" t="n">
         <v>180660.8452759916</v>
       </c>
       <c r="M6" t="n">
+        <v>180660.8452759916</v>
+      </c>
+      <c r="N6" t="n">
         <v>180660.8452759915</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>180660.8452759917</v>
       </c>
-      <c r="O6" t="n">
-        <v>180660.8452759916</v>
-      </c>
       <c r="P6" t="n">
-        <v>180660.8452759917</v>
+        <v>55739.02668128307</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>35.02126071912529</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26771,13 +26773,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26787,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>276.1565137023554</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="E4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="D4" t="n">
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="E4" t="n">
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>215.7324361209785</v>
       </c>
     </row>
     <row r="4">
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32230,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>94.23794409861748</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35665,7 +35667,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35969,19 +35971,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36677,7 +36679,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36686,7 +36688,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -37072,7 +37074,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
         <v>485.8144648060965</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37397,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>352.2398022257501</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>365.2844632307155</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
